--- a/biology/Botanique/Goodyera/Goodyera.xlsx
+++ b/biology/Botanique/Goodyera/Goodyera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodyera est un genre d'orchidées terrestres comptant une centaine d'espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Goodyera vient du botaniste anglais John Goodyer.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes sans chlorophylle, ne pratiquant pas la photosynthèse, mais vivant en symbiose avec des champignons.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition tropicale à circumboréale :
 60 espèces en Asie du Sud-Est
@@ -606,7 +624,9 @@
           <t>Espèces européennes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Goodyera repens Châtel., 1760, Goodyère rampante, circumboréale.
 Goodyera macrophylla Endémique à l'île de Madère.</t>
@@ -637,7 +657,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Goodyera afzelii Schltr., Repert. Spec. Nov. Regni Veg. 15: 327 (1918).
@@ -772,7 +794,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreuses espèces asiatiques sont menacées du fait de la destruction de leur habitat.
 </t>
